--- a/data/population_models/models_summary_kriegberg_male_weight95.xlsx
+++ b/data/population_models/models_summary_kriegberg_male_weight95.xlsx
@@ -457,7 +457,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>56 [37-91]</t>
+          <t>4 [3-7]</t>
         </is>
       </c>
     </row>
@@ -504,7 +504,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>51 [33-86]</t>
+          <t>4 [2-6]</t>
         </is>
       </c>
     </row>
@@ -551,7 +551,7 @@
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>43 [43-43]</t>
+          <t>3 [3-3]</t>
         </is>
       </c>
     </row>

--- a/data/population_models/models_summary_kriegberg_male_weight95.xlsx
+++ b/data/population_models/models_summary_kriegberg_male_weight95.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,50 +365,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>i</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Phi</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pent</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>npar</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>AICc</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>DeltaAICc</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>weight</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Deviance</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>ind_per_ha</t>
         </is>
@@ -420,44 +425,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2">
+        <v>39</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>0.9 [0.838-0.953]</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>0.09 [0.044-0.163]</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>0.09 [0.059-0.128]</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>475 [315-761]</t>
         </is>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>201.4552237288136</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>0</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.4823669828846306</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>-356.97617</v>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>4 [3-7]</t>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>48 [32-76]</t>
         </is>
       </c>
     </row>
@@ -467,44 +475,47 @@
           <t>Phi(~Time + I(Time^2))p(~sundur + wind)pent(~Time + I(Time^2))N(~1)</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3">
+        <v>69</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>0.9 [0.833-0.955]</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>0.09 [0.045-0.171]</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>0.09 [0.044-0.183]</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>503 [324-833]</t>
         </is>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>10</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>202.8881118803419</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>1.432888151528317</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.2356296102047661</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-357.8982</v>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>4 [2-6]</t>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>50 [32-83]</t>
         </is>
       </c>
     </row>
@@ -514,44 +525,47 @@
           <t>Phi(~Time + I(Time^2))p(~temp + wind + sundur)pent(~Time)N(~1)</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4">
+        <v>51</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>0.88 [0.771-0.949]</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>0.08 [0.039-0.169]</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>0.08 [0.054-0.135]</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>467 [311-745]</t>
         </is>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>10</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>203.5945418803419</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>2.139318151528329</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1655124012222947</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>-357.19177</v>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>3 [3-3]</t>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>47 [31-74]</t>
         </is>
       </c>
     </row>
